--- a/data/flea_dog_cat_fox.xlsx
+++ b/data/flea_dog_cat_fox.xlsx
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1</v>
+        <v>7.7</v>
       </c>
       <c r="C16" t="n">
         <v>21</v>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2</v>
+        <v>8.1</v>
       </c>
       <c r="C17" t="n">
         <v>25</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>14.1</v>
+        <v>9.1</v>
       </c>
       <c r="C18" t="n">
         <v>31</v>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="C21" t="n">
         <v>18</v>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="C22" t="n">
         <v>19</v>

--- a/data/flea_dog_cat_fox.xlsx
+++ b/data/flea_dog_cat_fox.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">animal</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">flea_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
   </si>
   <si>
     <t xml:space="preserve">grade</t>
@@ -383,10 +386,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>5.7</v>
@@ -395,15 +401,18 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>8.9</v>
@@ -412,15 +421,18 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>11.8</v>
@@ -429,66 +441,78 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>8.2</v>
+        <v>5.6</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="C6" t="n">
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.1</v>
+        <v>8.2</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>7.6</v>
@@ -497,15 +521,18 @@
         <v>21</v>
       </c>
       <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>3.2</v>
@@ -514,15 +541,18 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
         <v>2.2</v>
@@ -531,15 +561,18 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E10" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
         <v>5.4</v>
@@ -548,15 +581,18 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>4.1</v>
@@ -565,15 +601,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
         <v>4.3</v>
@@ -582,15 +621,18 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="n">
         <v>7.9</v>
@@ -599,15 +641,18 @@
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
         <v>6.1</v>
@@ -616,15 +661,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
         <v>7.7</v>
@@ -633,15 +681,18 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E16" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
         <v>8.1</v>
@@ -650,15 +701,18 @@
         <v>25</v>
       </c>
       <c r="D17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>9.1</v>
@@ -667,15 +721,18 @@
         <v>31</v>
       </c>
       <c r="D18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
         <v>9.7</v>
@@ -684,15 +741,18 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
         <v>10.6</v>
@@ -701,15 +761,18 @@
         <v>28</v>
       </c>
       <c r="D20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
         <v>8.6</v>
@@ -718,15 +781,18 @@
         <v>18</v>
       </c>
       <c r="D21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
         <v>10.3</v>
@@ -735,9 +801,12 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E22" t="n">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
